--- a/data/trans_orig/P20D1_R_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P20D1_R_2023-Habitat-trans_orig.xlsx
@@ -744,7 +744,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>3599</v>
+        <v>3038</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.05710752072810465</v>
@@ -753,7 +753,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2161263149119322</v>
+        <v>0.1824468305172425</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>12</v>
@@ -762,19 +762,19 @@
         <v>8812</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>5570</v>
+        <v>5502</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>11230</v>
+        <v>11287</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.6616205811964945</v>
+        <v>0.6616205811964943</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4181661488370719</v>
+        <v>0.4130665171603814</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8431501502560091</v>
+        <v>0.8474674306800103</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>14</v>
@@ -783,19 +783,19 @@
         <v>9763</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>5190</v>
+        <v>5433</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>15054</v>
+        <v>14714</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3257535376554482</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1731624070209295</v>
+        <v>0.1812822900336017</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.502304080294484</v>
+        <v>0.4909581403334325</v>
       </c>
     </row>
     <row r="5">
@@ -812,16 +812,16 @@
         <v>15700</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>13052</v>
+        <v>13613</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>16651</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9428924792718953</v>
+        <v>0.9428924792718955</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7838736850880685</v>
+        <v>0.8175531694827575</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -833,19 +833,19 @@
         <v>4507</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>2089</v>
+        <v>2032</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>7749</v>
+        <v>7817</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.3383794188035057</v>
+        <v>0.3383794188035056</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.156849849743991</v>
+        <v>0.1525325693199897</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.5818338511629284</v>
+        <v>0.5869334828396195</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>26</v>
@@ -854,19 +854,19 @@
         <v>20207</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>14916</v>
+        <v>15256</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>24780</v>
+        <v>24537</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6742464623445518</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4976959197055157</v>
+        <v>0.5090418596665676</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8268375929790706</v>
+        <v>0.8187177099663983</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>2352</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>472</v>
+        <v>538</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>6878</v>
+        <v>7049</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.150251466176256</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03014097988125854</v>
+        <v>0.03435706337754735</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4394500513784684</v>
+        <v>0.4503710883125678</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>9</v>
@@ -979,19 +979,19 @@
         <v>8274</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>4176</v>
+        <v>4296</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>12338</v>
+        <v>12454</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.5354158489115635</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.27021671445839</v>
+        <v>0.2779819928970152</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.7984274366159444</v>
+        <v>0.8059115020921963</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>12</v>
@@ -1000,19 +1000,19 @@
         <v>10625</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>5696</v>
+        <v>5511</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>18047</v>
+        <v>18895</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.3416002954734103</v>
+        <v>0.3416002954734102</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1831337744827586</v>
+        <v>0.1771736903193506</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.5802021709939055</v>
+        <v>0.6074723793676809</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>13300</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>8774</v>
+        <v>8603</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>15180</v>
+        <v>15114</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8497485338237439</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5605499486215318</v>
+        <v>0.549628911687432</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9698590201187416</v>
+        <v>0.9656429366224527</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>12</v>
@@ -1050,19 +1050,19 @@
         <v>7179</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>3115</v>
+        <v>2999</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>11277</v>
+        <v>11157</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.4645841510884365</v>
+        <v>0.4645841510884366</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2015725633840556</v>
+        <v>0.1940884979078042</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.72978328554161</v>
+        <v>0.7220180071029847</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>25</v>
@@ -1071,19 +1071,19 @@
         <v>20480</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>13058</v>
+        <v>12210</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>25409</v>
+        <v>25594</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6583997045265898</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.4197978290060945</v>
+        <v>0.3925276206323181</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8168662255172414</v>
+        <v>0.8228263096806493</v>
       </c>
     </row>
     <row r="9">
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>7358</v>
+        <v>7121</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1628935803406922</v>
@@ -1187,7 +1187,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4762337619466153</v>
+        <v>0.4608524924595766</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>5</v>
@@ -1196,19 +1196,19 @@
         <v>3676</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1446</v>
+        <v>1526</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>6383</v>
+        <v>6535</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4002094685473278</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1574327404963109</v>
+        <v>0.1661051170254772</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.6950208311102897</v>
+        <v>0.7115637379023504</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>7</v>
@@ -1217,19 +1217,19 @@
         <v>6192</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>2833</v>
+        <v>2723</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>11069</v>
+        <v>11084</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2513632211216131</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1150185471793064</v>
+        <v>0.110522139837697</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4493086622995077</v>
+        <v>0.4499439949250379</v>
       </c>
     </row>
     <row r="11">
@@ -1246,16 +1246,16 @@
         <v>12934</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>8093</v>
+        <v>8330</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>15451</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.8371064196593078</v>
+        <v>0.8371064196593079</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5237662380533846</v>
+        <v>0.5391475075404228</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>1</v>
@@ -1267,19 +1267,19 @@
         <v>5508</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>2801</v>
+        <v>2649</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>7738</v>
+        <v>7658</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.5997905314526722</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3049791688897102</v>
+        <v>0.2884362620976497</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8425672595036893</v>
+        <v>0.8338948829745229</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>20</v>
@@ -1288,19 +1288,19 @@
         <v>18443</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>13566</v>
+        <v>13551</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>21802</v>
+        <v>21912</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.748636778878387</v>
+        <v>0.7486367788783871</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5506913377004919</v>
+        <v>0.5500560050749621</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8849814528206934</v>
+        <v>0.8894778601623029</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>2910</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>708</v>
+        <v>666</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>6718</v>
+        <v>6511</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1423349658336963</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03464814334786477</v>
+        <v>0.03255949036237517</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3285402469160758</v>
+        <v>0.3184004585652604</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>14</v>
@@ -1413,19 +1413,19 @@
         <v>8733</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>5685</v>
+        <v>5285</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>12304</v>
+        <v>12126</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.4517930210984714</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.294100982410061</v>
+        <v>0.2734109023025612</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.6365227187906699</v>
+        <v>0.6273223419267844</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>18</v>
@@ -1434,19 +1434,19 @@
         <v>11643</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>7491</v>
+        <v>7174</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>16828</v>
+        <v>16271</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2927153223289157</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1883160979675462</v>
+        <v>0.1803646536148243</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4230663288728362</v>
+        <v>0.4090568680781396</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>17538</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>13730</v>
+        <v>13937</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>19740</v>
+        <v>19782</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.8576650341663038</v>
+        <v>0.8576650341663037</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6714597530839235</v>
+        <v>0.6815995414347398</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9653518566521353</v>
+        <v>0.9674405096376247</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>17</v>
@@ -1484,19 +1484,19 @@
         <v>10597</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>7026</v>
+        <v>7204</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>13645</v>
+        <v>14045</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5482069789015286</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3634772812093301</v>
+        <v>0.3726776580732159</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7058990175899388</v>
+        <v>0.7265890976974387</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>40</v>
@@ -1505,19 +1505,19 @@
         <v>28134</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>22949</v>
+        <v>23506</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>32286</v>
+        <v>32603</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.7072846776710845</v>
+        <v>0.7072846776710844</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5769336711271638</v>
+        <v>0.5909431319218604</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8116839020324539</v>
+        <v>0.8196353463851757</v>
       </c>
     </row>
     <row r="15">
@@ -1609,19 +1609,19 @@
         <v>8730</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>4703</v>
+        <v>4722</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>15280</v>
+        <v>15650</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.1280014271240324</v>
+        <v>0.1280014271240325</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.06895801508824635</v>
+        <v>0.06923515605625745</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2240352116699997</v>
+        <v>0.2294678950273249</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>40</v>
@@ -1630,19 +1630,19 @@
         <v>29494</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>23550</v>
+        <v>22698</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>37045</v>
+        <v>36604</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.5148654427542919</v>
+        <v>0.514865442754292</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4111081371078712</v>
+        <v>0.3962269262512342</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6466812733474495</v>
+        <v>0.6389752093070827</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>51</v>
@@ -1651,19 +1651,19 @@
         <v>38224</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>28995</v>
+        <v>28785</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>50788</v>
+        <v>48665</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.3046049829183108</v>
+        <v>0.3046049829183109</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2310568457617186</v>
+        <v>0.2293884464550214</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4047251083641883</v>
+        <v>0.3878086550424156</v>
       </c>
     </row>
     <row r="17">
@@ -1680,19 +1680,19 @@
         <v>59472</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>52922</v>
+        <v>52552</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>63499</v>
+        <v>63480</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.8719985728759676</v>
+        <v>0.8719985728759677</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7759647883300005</v>
+        <v>0.7705321049726749</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9310419849117536</v>
+        <v>0.9307648439437423</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>45</v>
@@ -1701,19 +1701,19 @@
         <v>27791</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>20240</v>
+        <v>20681</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>33735</v>
+        <v>34587</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.4851345572457079</v>
+        <v>0.485134557245708</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3533187266525502</v>
+        <v>0.3610247906929173</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.5888918628921288</v>
+        <v>0.6037730737487657</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>111</v>
@@ -1722,19 +1722,19 @@
         <v>87263</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>74699</v>
+        <v>76822</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>96492</v>
+        <v>96702</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.6953950170816892</v>
+        <v>0.6953950170816894</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.5952748916358115</v>
+        <v>0.6121913449575844</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7689431542382812</v>
+        <v>0.7706115535449788</v>
       </c>
     </row>
     <row r="18">
